--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N2">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q2">
-        <v>82.89195918120001</v>
+        <v>2.1893962792625</v>
       </c>
       <c r="R2">
-        <v>497.3517550872</v>
+        <v>8.757585117050001</v>
       </c>
       <c r="S2">
-        <v>0.3147738875783</v>
+        <v>0.01199197135473744</v>
       </c>
       <c r="T2">
-        <v>0.2472168478181395</v>
+        <v>0.006723950394987617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q3">
-        <v>18.083623280976</v>
+        <v>0.4917798358550001</v>
       </c>
       <c r="R3">
-        <v>162.752609528784</v>
+        <v>2.95067901513</v>
       </c>
       <c r="S3">
-        <v>0.06867074270993076</v>
+        <v>0.002693623699039621</v>
       </c>
       <c r="T3">
-        <v>0.0808988541617353</v>
+        <v>0.002265489751351481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N4">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q4">
-        <v>35.082344426736</v>
+        <v>0.6779834724950001</v>
       </c>
       <c r="R4">
-        <v>315.741099840624</v>
+        <v>4.067900834970001</v>
       </c>
       <c r="S4">
-        <v>0.133221678551774</v>
+        <v>0.003713516122300243</v>
       </c>
       <c r="T4">
-        <v>0.1569442927079769</v>
+        <v>0.003123276914867218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N5">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q5">
-        <v>36.52114260816001</v>
+        <v>0.71492144255</v>
       </c>
       <c r="R5">
-        <v>219.12685564896</v>
+        <v>2.8596857702</v>
       </c>
       <c r="S5">
-        <v>0.1386853701025721</v>
+        <v>0.003915836315769704</v>
       </c>
       <c r="T5">
-        <v>0.1089205978901965</v>
+        <v>0.002195626420648922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N6">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q6">
-        <v>49.94599222473601</v>
+        <v>0.24978492504</v>
       </c>
       <c r="R6">
-        <v>449.5139300226241</v>
+        <v>1.49870955024</v>
       </c>
       <c r="S6">
-        <v>0.1896648878471845</v>
+        <v>0.001368145956169217</v>
       </c>
       <c r="T6">
-        <v>0.2234382721964117</v>
+        <v>0.001150688064988227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>0.125615</v>
+      </c>
+      <c r="H7">
+        <v>0.25123</v>
+      </c>
+      <c r="I7">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J7">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.057513666666667</v>
+      </c>
+      <c r="N7">
+        <v>12.172541</v>
+      </c>
+      <c r="O7">
+        <v>0.1054472433062699</v>
+      </c>
+      <c r="P7">
+        <v>0.1318566499842704</v>
+      </c>
+      <c r="Q7">
+        <v>0.5096845792383334</v>
+      </c>
+      <c r="R7">
+        <v>3.05810747543</v>
+      </c>
+      <c r="S7">
+        <v>0.002791693277306734</v>
+      </c>
+      <c r="T7">
+        <v>0.002347971808723756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4.619088000000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>13.857264</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.835736333333335</v>
-      </c>
-      <c r="N7">
-        <v>26.507209</v>
-      </c>
-      <c r="O7">
-        <v>0.1549834332102386</v>
-      </c>
-      <c r="P7">
-        <v>0.1825811352255401</v>
-      </c>
-      <c r="Q7">
-        <v>40.81304366846401</v>
-      </c>
-      <c r="R7">
-        <v>367.3173930161761</v>
-      </c>
-      <c r="S7">
-        <v>0.1549834332102386</v>
-      </c>
-      <c r="T7">
-        <v>0.1825811352255401</v>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.4294175</v>
+      </c>
+      <c r="N8">
+        <v>34.858835</v>
+      </c>
+      <c r="O8">
+        <v>0.4529581854295807</v>
+      </c>
+      <c r="P8">
+        <v>0.3776014560521451</v>
+      </c>
+      <c r="Q8">
+        <v>80.50801322124001</v>
+      </c>
+      <c r="R8">
+        <v>483.04807932744</v>
+      </c>
+      <c r="S8">
+        <v>0.4409662140748433</v>
+      </c>
+      <c r="T8">
+        <v>0.3708775056571575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.914977</v>
+      </c>
+      <c r="N9">
+        <v>11.744931</v>
+      </c>
+      <c r="O9">
+        <v>0.1017429801035258</v>
+      </c>
+      <c r="P9">
+        <v>0.127224648983019</v>
+      </c>
+      <c r="Q9">
+        <v>18.083623280976</v>
+      </c>
+      <c r="R9">
+        <v>162.752609528784</v>
+      </c>
+      <c r="S9">
+        <v>0.09904935640448616</v>
+      </c>
+      <c r="T9">
+        <v>0.1249591592316675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.397313</v>
+      </c>
+      <c r="N10">
+        <v>16.191939</v>
+      </c>
+      <c r="O10">
+        <v>0.1402661392829386</v>
+      </c>
+      <c r="P10">
+        <v>0.1753959862028526</v>
+      </c>
+      <c r="Q10">
+        <v>24.93066371054401</v>
+      </c>
+      <c r="R10">
+        <v>224.375973394896</v>
+      </c>
+      <c r="S10">
+        <v>0.1365526231606383</v>
+      </c>
+      <c r="T10">
+        <v>0.1722727092879854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.69137</v>
+      </c>
+      <c r="N11">
+        <v>11.38274</v>
+      </c>
+      <c r="O11">
+        <v>0.1479081344978025</v>
+      </c>
+      <c r="P11">
+        <v>0.1233012863987851</v>
+      </c>
+      <c r="Q11">
+        <v>26.28893887056</v>
+      </c>
+      <c r="R11">
+        <v>157.73363322336</v>
+      </c>
+      <c r="S11">
+        <v>0.1439922981820328</v>
+      </c>
+      <c r="T11">
+        <v>0.1211056599781362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.988496</v>
+      </c>
+      <c r="N12">
+        <v>5.965488000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.05167731737988258</v>
+      </c>
+      <c r="P12">
+        <v>0.06461997237892773</v>
+      </c>
+      <c r="Q12">
+        <v>9.185038011648002</v>
+      </c>
+      <c r="R12">
+        <v>82.66534210483201</v>
+      </c>
+      <c r="S12">
+        <v>0.05030917142371337</v>
+      </c>
+      <c r="T12">
+        <v>0.06346928431393951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.057513666666667</v>
+      </c>
+      <c r="N13">
+        <v>12.172541</v>
+      </c>
+      <c r="O13">
+        <v>0.1054472433062699</v>
+      </c>
+      <c r="P13">
+        <v>0.1318566499842704</v>
+      </c>
+      <c r="Q13">
+        <v>18.742012687536</v>
+      </c>
+      <c r="R13">
+        <v>168.678114187824</v>
+      </c>
+      <c r="S13">
+        <v>0.1026555500289631</v>
+      </c>
+      <c r="T13">
+        <v>0.1295086781755467</v>
       </c>
     </row>
   </sheetData>
